--- a/biology/Histoire de la zoologie et de la botanique/Christoph_Friedrich_Otto/Christoph_Friedrich_Otto.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Christoph_Friedrich_Otto/Christoph_Friedrich_Otto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christoph Friedrich Otto est un jardinier et un botaniste saxon, né le 4 décembre 1783 à Schneeberg (Erzgebirge) et mort le 7 décembre 1856 à Berlin.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1805 à 1843, Otto est inspecteur au Jardin botanique de Berlin. Avec Albert Gottfried Dietrich (1795-1856), il dirige la publication Allgemeinen Gartenzeitung. Le genre Ottoa (en) lui a été dédié par Karl Sigismund Kunth (1788-1850).
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1819-1830 : avec Friedrich Guimpel (de) (1774-1839) et Friedrich Gottlob Hayne (1763-1832), Abbildung der fremden in Deutschland ausdauernden Holzarten.
 1820-1828 : avec Heinrich Friedrich Link (1767-1851), Abbildungen auserlesener Gewächse des königlichen botanischen Gartens
